--- a/data_in/dimensionless/fuel_switch_keys.xlsx
+++ b/data_in/dimensionless/fuel_switch_keys.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Namen WZ" sheetId="5" r:id="rId1"/>
     <sheet name="Gas2Power industry 2045" sheetId="10" r:id="rId2"/>
-    <sheet name="Gas2Power CTS 2045" sheetId="12" r:id="rId3"/>
-    <sheet name="Gas2Hydrogen industry 2045" sheetId="11" r:id="rId4"/>
+    <sheet name="Gas2Power industry electrode" sheetId="13" r:id="rId3"/>
+    <sheet name="Gas2Power CTS 2045" sheetId="12" r:id="rId4"/>
+    <sheet name="Gas2Hydrogen industry 2045" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>Landwirtschaft, Jagd und damit verbundene Tätigkeiten</t>
   </si>
@@ -331,10 +332,6 @@
     <t>Share of Gas consumption replaced by electricity in 2045</t>
   </si>
   <si>
-    <t>Mechanische 
-Energie</t>
-  </si>
-  <si>
     <t>Prozesswärme</t>
   </si>
   <si>
@@ -393,6 +390,15 @@
   </si>
   <si>
     <t>U Exterritoriale Organisationen und Körperschaften</t>
+  </si>
+  <si>
+    <t>Industriekraftwerke</t>
+  </si>
+  <si>
+    <t>Mechanische Energie</t>
+  </si>
+  <si>
+    <t>Nichtenergetische Nutzung</t>
   </si>
 </sst>
 </file>
@@ -573,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -613,6 +619,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1728,7 +1735,7 @@
   <dimension ref="A1:Q146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1753,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -1766,11 +1773,18 @@
         <v>95</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1794,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
@@ -1810,6 +1824,12 @@
       </c>
       <c r="H4" s="13">
         <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0</v>
       </c>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -1825,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -1841,6 +1861,12 @@
       </c>
       <c r="H5" s="13">
         <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -1856,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1872,6 +1898,12 @@
       </c>
       <c r="H6" s="13">
         <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1887,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="13">
         <v>0</v>
@@ -1903,6 +1935,12 @@
       </c>
       <c r="H7" s="13">
         <v>1</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
       </c>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1918,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1934,6 +1972,12 @@
       </c>
       <c r="H8" s="13">
         <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1947,6 +1991,8 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1956,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1972,6 +2018,12 @@
       </c>
       <c r="H10" s="13">
         <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1982,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -1998,6 +2050,12 @@
       </c>
       <c r="H11" s="13">
         <v>1</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2008,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -2024,6 +2082,12 @@
       </c>
       <c r="H12" s="13">
         <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2034,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -2050,6 +2114,12 @@
       </c>
       <c r="H13" s="13">
         <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2060,10 +2130,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -2076,6 +2146,12 @@
       </c>
       <c r="H14" s="13">
         <v>1</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2086,10 +2162,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D15" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -2102,6 +2178,12 @@
       </c>
       <c r="H15" s="13">
         <v>1</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2112,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -2128,6 +2210,12 @@
       </c>
       <c r="H16" s="13">
         <v>1</v>
+      </c>
+      <c r="I16" s="13">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2138,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D17" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -2154,6 +2242,12 @@
       </c>
       <c r="H17" s="13">
         <v>1</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2164,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -2180,6 +2274,12 @@
       </c>
       <c r="H18" s="13">
         <v>1</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2190,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13">
         <v>0</v>
@@ -2206,6 +2306,12 @@
       </c>
       <c r="H19" s="13">
         <v>1</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2216,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
@@ -2232,6 +2338,12 @@
       </c>
       <c r="H20" s="13">
         <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2242,10 +2354,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="13">
         <v>0</v>
@@ -2258,6 +2370,12 @@
       </c>
       <c r="H21" s="13">
         <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2268,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="13">
         <v>0</v>
@@ -2284,6 +2402,12 @@
       </c>
       <c r="H22" s="13">
         <v>1</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2294,10 +2418,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="13">
         <v>0</v>
@@ -2310,6 +2434,12 @@
       </c>
       <c r="H23" s="13">
         <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2320,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D24" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="13">
         <v>0</v>
@@ -2336,6 +2466,12 @@
       </c>
       <c r="H24" s="13">
         <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2346,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D25" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2362,6 +2498,12 @@
       </c>
       <c r="H25" s="13">
         <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2372,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -2388,6 +2530,12 @@
       </c>
       <c r="H26" s="13">
         <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -2403,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D27" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="13">
         <v>0</v>
@@ -2419,6 +2567,12 @@
       </c>
       <c r="H27" s="13">
         <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
       </c>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -2434,10 +2588,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="13">
         <v>0</v>
@@ -2450,6 +2604,12 @@
       </c>
       <c r="H28" s="13">
         <v>1</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -2465,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D29" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="13">
         <v>0</v>
@@ -2481,6 +2641,12 @@
       </c>
       <c r="H29" s="13">
         <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
       </c>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -2496,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -2512,6 +2678,12 @@
       </c>
       <c r="H30" s="13">
         <v>1</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
       </c>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -2527,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="13">
         <v>0</v>
@@ -2543,6 +2715,12 @@
       </c>
       <c r="H31" s="13">
         <v>1</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
       </c>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -2558,10 +2736,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="13">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="D32" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="13">
         <v>0</v>
@@ -2574,6 +2752,12 @@
       </c>
       <c r="H32" s="13">
         <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
       </c>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -2589,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D33" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2605,6 +2789,12 @@
       </c>
       <c r="H33" s="13">
         <v>1</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -2949,1177 +3139,355 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:3" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>5</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>36</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B9" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B11" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B13" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B14" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="B15" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>17</v>
+      </c>
+      <c r="B16" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B17" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B18" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B19" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>21</v>
+      </c>
+      <c r="B20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B21" s="13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="13">
-        <v>1</v>
-      </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B23" s="13">
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="E23" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B24" s="13">
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="E24" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B25" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>27</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B27" s="13">
-        <v>1</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B28" s="13">
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>30</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="B30" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="13">
-        <v>1</v>
-      </c>
-      <c r="E30" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B31" s="13">
-        <v>1</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="B32" s="13">
-        <v>1</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="C32" s="13">
-        <v>1</v>
-      </c>
-      <c r="D32" s="13">
-        <v>1</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>61</v>
-      </c>
-      <c r="B33" s="13">
-        <v>1</v>
-      </c>
-      <c r="C33" s="13">
-        <v>1</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>62</v>
-      </c>
-      <c r="B34" s="13">
-        <v>1</v>
-      </c>
-      <c r="C34" s="13">
-        <v>1</v>
-      </c>
-      <c r="D34" s="13">
-        <v>1</v>
-      </c>
-      <c r="E34" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>63</v>
-      </c>
-      <c r="B35" s="13">
-        <v>1</v>
-      </c>
-      <c r="C35" s="13">
-        <v>1</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>64</v>
-      </c>
-      <c r="B37" s="13">
-        <v>1</v>
-      </c>
-      <c r="C37" s="13">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
-      <c r="E37" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>65</v>
-      </c>
-      <c r="B38" s="13">
-        <v>1</v>
-      </c>
-      <c r="C38" s="13">
-        <v>1</v>
-      </c>
-      <c r="D38" s="13">
-        <v>1</v>
-      </c>
-      <c r="E38" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>66</v>
-      </c>
-      <c r="B39" s="13">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13">
-        <v>1</v>
-      </c>
-      <c r="D39" s="13">
-        <v>1</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>68</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13">
-        <v>1</v>
-      </c>
-      <c r="D41" s="13">
-        <v>1</v>
-      </c>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>69</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-      <c r="E43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>70</v>
-      </c>
-      <c r="B44" s="13">
-        <v>1</v>
-      </c>
-      <c r="C44" s="13">
-        <v>1</v>
-      </c>
-      <c r="D44" s="13">
-        <v>1</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>71</v>
-      </c>
-      <c r="B45" s="13">
-        <v>1</v>
-      </c>
-      <c r="C45" s="13">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13">
-        <v>1</v>
-      </c>
-      <c r="E45" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>72</v>
-      </c>
-      <c r="B46" s="13">
-        <v>1</v>
-      </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="13">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>73</v>
-      </c>
-      <c r="B47" s="13">
-        <v>1</v>
-      </c>
-      <c r="C47" s="13">
-        <v>1</v>
-      </c>
-      <c r="D47" s="13">
-        <v>1</v>
-      </c>
-      <c r="E47" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>74</v>
-      </c>
-      <c r="B48" s="13">
-        <v>1</v>
-      </c>
-      <c r="C48" s="13">
-        <v>1</v>
-      </c>
-      <c r="D48" s="13">
-        <v>1</v>
-      </c>
-      <c r="E48" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>75</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1</v>
-      </c>
-      <c r="C49" s="13">
-        <v>1</v>
-      </c>
-      <c r="D49" s="13">
-        <v>1</v>
-      </c>
-      <c r="E49" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>77</v>
-      </c>
-      <c r="B51" s="13">
-        <v>1</v>
-      </c>
-      <c r="C51" s="13">
-        <v>1</v>
-      </c>
-      <c r="D51" s="13">
-        <v>1</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>78</v>
-      </c>
-      <c r="B52" s="13">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13">
-        <v>1</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>79</v>
-      </c>
-      <c r="B53" s="13">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13">
-        <v>1</v>
-      </c>
-      <c r="D53" s="13">
-        <v>1</v>
-      </c>
-      <c r="E53" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>80</v>
-      </c>
-      <c r="B54" s="13">
-        <v>1</v>
-      </c>
-      <c r="C54" s="13">
-        <v>1</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1</v>
-      </c>
-      <c r="E54" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>81</v>
-      </c>
-      <c r="B55" s="13">
-        <v>1</v>
-      </c>
-      <c r="C55" s="13">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
-        <v>1</v>
-      </c>
-      <c r="E55" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>82</v>
-      </c>
-      <c r="B56" s="13">
-        <v>1</v>
-      </c>
-      <c r="C56" s="13">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
-        <v>1</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>84</v>
-      </c>
-      <c r="B58" s="13">
-        <v>1</v>
-      </c>
-      <c r="C58" s="13">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>1</v>
-      </c>
-      <c r="E58" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>85</v>
-      </c>
-      <c r="B60" s="13">
-        <v>1</v>
-      </c>
-      <c r="C60" s="13">
-        <v>1</v>
-      </c>
-      <c r="D60" s="13">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>86</v>
-      </c>
-      <c r="B62" s="13">
-        <v>1</v>
-      </c>
-      <c r="C62" s="13">
-        <v>1</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>87</v>
-      </c>
-      <c r="B63" s="13">
-        <v>1</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1</v>
-      </c>
-      <c r="D63" s="13">
-        <v>1</v>
-      </c>
-      <c r="E63" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="7">
-        <v>88</v>
-      </c>
-      <c r="B64" s="13">
-        <v>1</v>
-      </c>
-      <c r="C64" s="13">
-        <v>1</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1</v>
-      </c>
-      <c r="E64" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
-        <v>90</v>
-      </c>
-      <c r="B66" s="13">
-        <v>1</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1</v>
-      </c>
-      <c r="D66" s="13">
-        <v>1</v>
-      </c>
-      <c r="E66" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>91</v>
-      </c>
-      <c r="B67" s="13">
-        <v>1</v>
-      </c>
-      <c r="C67" s="13">
-        <v>1</v>
-      </c>
-      <c r="D67" s="13">
-        <v>1</v>
-      </c>
-      <c r="E67" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>92</v>
-      </c>
-      <c r="B68" s="13">
-        <v>1</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1</v>
-      </c>
-      <c r="D68" s="13">
-        <v>1</v>
-      </c>
-      <c r="E68" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
-        <v>93</v>
-      </c>
-      <c r="B69" s="13">
-        <v>1</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1</v>
-      </c>
-      <c r="D69" s="13">
-        <v>1</v>
-      </c>
-      <c r="E69" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="7">
-        <v>94</v>
-      </c>
-      <c r="B71" s="13">
-        <v>1</v>
-      </c>
-      <c r="C71" s="13">
-        <v>1</v>
-      </c>
-      <c r="D71" s="13">
-        <v>1</v>
-      </c>
-      <c r="E71" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="7">
-        <v>95</v>
-      </c>
-      <c r="B72" s="13">
-        <v>1</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1</v>
-      </c>
-      <c r="D72" s="13">
-        <v>1</v>
-      </c>
-      <c r="E72" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
-        <v>96</v>
-      </c>
-      <c r="B73" s="13">
-        <v>1</v>
-      </c>
-      <c r="C73" s="13">
-        <v>1</v>
-      </c>
-      <c r="D73" s="13">
-        <v>1</v>
-      </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>97</v>
-      </c>
-      <c r="B75" s="13">
-        <v>1</v>
-      </c>
-      <c r="C75" s="13">
-        <v>1</v>
-      </c>
-      <c r="D75" s="13">
-        <v>1</v>
-      </c>
-      <c r="E75" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>98</v>
-      </c>
-      <c r="B76" s="13">
-        <v>1</v>
-      </c>
-      <c r="C76" s="13">
-        <v>1</v>
-      </c>
-      <c r="D76" s="13">
-        <v>1</v>
-      </c>
-      <c r="E76" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="18">
-        <v>99</v>
-      </c>
-      <c r="B78" s="13">
-        <v>1</v>
-      </c>
-      <c r="C78" s="13">
-        <v>1</v>
-      </c>
-      <c r="D78" s="13">
-        <v>1</v>
-      </c>
-      <c r="E78" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4133,26 +3501,1212 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>37</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>39</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>42</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>45</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>46</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>47</v>
+      </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>49</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>50</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>51</v>
+      </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>52</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>53</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>55</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>56</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>58</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>59</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>60</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>61</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>62</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>63</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
+        <v>1</v>
+      </c>
+      <c r="D35" s="13">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>64</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>65</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
+        <v>1</v>
+      </c>
+      <c r="D38" s="13">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>66</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>68</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>69</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>70</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>71</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1</v>
+      </c>
+      <c r="D45" s="13">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>72</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>73</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>74</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>75</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>77</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
+        <v>1</v>
+      </c>
+      <c r="D51" s="13">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>78</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>79</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>80</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>81</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13">
+        <v>1</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>82</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13">
+        <v>1</v>
+      </c>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>84</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13">
+        <v>1</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>85</v>
+      </c>
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1</v>
+      </c>
+      <c r="D60" s="13">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>86</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13">
+        <v>1</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>87</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13">
+        <v>1</v>
+      </c>
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>88</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13">
+        <v>1</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>90</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1</v>
+      </c>
+      <c r="C66" s="13">
+        <v>1</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>91</v>
+      </c>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1</v>
+      </c>
+      <c r="D67" s="13">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>92</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1</v>
+      </c>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>93</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13">
+        <v>1</v>
+      </c>
+      <c r="D69" s="13">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>94</v>
+      </c>
+      <c r="B71" s="13">
+        <v>1</v>
+      </c>
+      <c r="C71" s="13">
+        <v>1</v>
+      </c>
+      <c r="D71" s="13">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>95</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1</v>
+      </c>
+      <c r="D72" s="13">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>96</v>
+      </c>
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1</v>
+      </c>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>97</v>
+      </c>
+      <c r="B75" s="13">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13">
+        <v>1</v>
+      </c>
+      <c r="D75" s="13">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>98</v>
+      </c>
+      <c r="B76" s="13">
+        <v>1</v>
+      </c>
+      <c r="C76" s="13">
+        <v>1</v>
+      </c>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>99</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1</v>
+      </c>
+      <c r="D78" s="13">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="88.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="89.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
@@ -4171,8 +4725,20 @@
       <c r="F2" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>89</v>
       </c>
@@ -4180,13 +4746,13 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>5</v>
       </c>
@@ -4194,10 +4760,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -4205,13 +4771,25 @@
       <c r="F4" s="13">
         <v>0</v>
       </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>6</v>
       </c>
@@ -4219,10 +4797,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -4230,13 +4808,25 @@
       <c r="F5" s="13">
         <v>0</v>
       </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>7</v>
       </c>
@@ -4244,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
@@ -4255,13 +4845,25 @@
       <c r="F6" s="13">
         <v>0</v>
       </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>8</v>
       </c>
@@ -4269,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -4280,13 +4882,25 @@
       <c r="F7" s="13">
         <v>0</v>
       </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>9</v>
       </c>
@@ -4294,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
@@ -4305,8 +4919,20 @@
       <c r="F8" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>90</v>
       </c>
@@ -4315,8 +4941,12 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>10</v>
       </c>
@@ -4324,10 +4954,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -4335,8 +4965,20 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>11</v>
       </c>
@@ -4344,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -4355,8 +4997,20 @@
       <c r="F11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>12</v>
       </c>
@@ -4364,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
@@ -4375,8 +5029,20 @@
       <c r="F12" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>13</v>
       </c>
@@ -4384,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
@@ -4395,8 +5061,20 @@
       <c r="F13" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G13" s="19">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>14</v>
       </c>
@@ -4404,10 +5082,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D14" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="13">
         <v>1</v>
@@ -4415,8 +5093,20 @@
       <c r="F14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>15</v>
       </c>
@@ -4424,10 +5114,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
@@ -4435,8 +5125,20 @@
       <c r="F15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>16</v>
       </c>
@@ -4444,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="13">
         <v>1</v>
@@ -4455,8 +5157,20 @@
       <c r="F16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G16" s="19">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>17</v>
       </c>
@@ -4464,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="13">
         <v>1</v>
@@ -4475,8 +5189,20 @@
       <c r="F17" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="19">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>18</v>
       </c>
@@ -4484,10 +5210,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="13">
         <v>1</v>
@@ -4495,8 +5221,20 @@
       <c r="F18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G18" s="19">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>19</v>
       </c>
@@ -4504,10 +5242,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
@@ -4515,8 +5253,20 @@
       <c r="F19" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G19" s="19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>20</v>
       </c>
@@ -4524,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="13">
         <v>1</v>
@@ -4535,8 +5285,20 @@
       <c r="F20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>21</v>
       </c>
@@ -4544,10 +5306,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
@@ -4555,8 +5317,20 @@
       <c r="F21" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="19">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>22</v>
       </c>
@@ -4564,10 +5338,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -4575,8 +5349,20 @@
       <c r="F22" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G22" s="19">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>23</v>
       </c>
@@ -4584,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="13">
         <v>1</v>
@@ -4595,8 +5381,20 @@
       <c r="F23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>24</v>
       </c>
@@ -4604,10 +5402,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="13">
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D24" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
@@ -4615,8 +5413,20 @@
       <c r="F24" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>25</v>
       </c>
@@ -4624,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="13">
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
@@ -4635,8 +5445,20 @@
       <c r="F25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>26</v>
       </c>
@@ -4644,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
@@ -4655,13 +5477,25 @@
       <c r="F26" s="13">
         <v>0</v>
       </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>27</v>
       </c>
@@ -4669,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="C27" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
@@ -4680,13 +5514,25 @@
       <c r="F27" s="13">
         <v>0</v>
       </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>28</v>
       </c>
@@ -4694,10 +5540,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="13">
-        <v>9.9999999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
@@ -4705,13 +5551,25 @@
       <c r="F28" s="13">
         <v>0</v>
       </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>29</v>
       </c>
@@ -4719,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="13">
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D29" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="13">
         <v>1</v>
@@ -4730,13 +5588,25 @@
       <c r="F29" s="13">
         <v>0</v>
       </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>30</v>
       </c>
@@ -4744,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="13">
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D30" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="13">
         <v>1</v>
@@ -4755,13 +5625,25 @@
       <c r="F30" s="13">
         <v>0</v>
       </c>
+      <c r="G30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>31</v>
       </c>
@@ -4769,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D31" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -4780,13 +5662,25 @@
       <c r="F31" s="13">
         <v>0</v>
       </c>
+      <c r="G31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0</v>
+      </c>
+      <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>32</v>
       </c>
@@ -4794,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="13">
-        <v>0.33999999999999997</v>
+        <v>0</v>
       </c>
       <c r="D32" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="13">
         <v>1</v>
@@ -4805,13 +5699,25 @@
       <c r="F32" s="13">
         <v>0</v>
       </c>
+      <c r="G32" s="19">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <v>0</v>
+      </c>
+      <c r="J32" s="19">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>33</v>
       </c>
@@ -4819,10 +5725,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="13">
-        <v>0.19999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="13">
         <v>1</v>
@@ -4830,11 +5736,23 @@
       <c r="F33" s="13">
         <v>0</v>
       </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
